--- a/data/trans_dic/P2B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1773938992966079</v>
+        <v>0.1840482115041472</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5186792045476476</v>
+        <v>0.5232851772242639</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3938743802057784</v>
+        <v>0.3897447139275558</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07165532542039464</v>
+        <v>0.07256366322386609</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2907672505601593</v>
+        <v>0.2901783806685829</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5301827792984833</v>
+        <v>0.5308707722138267</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.439259171089586</v>
+        <v>0.4441304854183112</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1018700395148864</v>
+        <v>0.09876585813460445</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2512426229495455</v>
+        <v>0.2521101782302066</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5420791982863996</v>
+        <v>0.5466745299606003</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4374121178177924</v>
+        <v>0.4368093122366746</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09332356357265249</v>
+        <v>0.09267886896124261</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3016786168682192</v>
+        <v>0.3059619368391673</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6540761920527074</v>
+        <v>0.654218194653952</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5257617125499622</v>
+        <v>0.532712871698128</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1448496613178699</v>
+        <v>0.1409032610591988</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4338621997921636</v>
+        <v>0.4312803026012609</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6591551838030585</v>
+        <v>0.6543350176316745</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5695279461563157</v>
+        <v>0.5714758839649335</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1634510253492046</v>
+        <v>0.1650612540546786</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3506423049661506</v>
+        <v>0.3512348459340136</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6372964420019498</v>
+        <v>0.6357889340009433</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5328337659774015</v>
+        <v>0.5275309327777495</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1396786607686236</v>
+        <v>0.1398325561836175</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1479725947922497</v>
+        <v>0.1499325694342146</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4298489246035169</v>
+        <v>0.4275896495141168</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1586451109071353</v>
+        <v>0.1582266820893137</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1727375160370102</v>
+        <v>0.1724607454350921</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1983352917421489</v>
+        <v>0.2000920760657197</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4836186568979124</v>
+        <v>0.4848613126003928</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1962352440891114</v>
+        <v>0.1957761090521392</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2420698364408982</v>
+        <v>0.2473697904860831</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.190389052645253</v>
+        <v>0.1907078131688394</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4719762123568078</v>
+        <v>0.4729754659951317</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1911866070531963</v>
+        <v>0.1891857492127239</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2238872302737575</v>
+        <v>0.2228552481907341</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.233826102300928</v>
+        <v>0.2333273144659016</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5328532392898376</v>
+        <v>0.530573272422728</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2413295297160166</v>
+        <v>0.2376011608021158</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2753766113379849</v>
+        <v>0.2803963412422909</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2775612550922595</v>
+        <v>0.2824135787459879</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5809288118925822</v>
+        <v>0.5788745543909303</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2754027218981835</v>
+        <v>0.2782005644859307</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3200562666975814</v>
+        <v>0.3236749337086045</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.24538520376477</v>
+        <v>0.2506085452019712</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5433470643963298</v>
+        <v>0.5444421598401747</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2472136810843002</v>
+        <v>0.2502539527901149</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2857544057248773</v>
+        <v>0.2845221533635576</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3026240619228201</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2221030518682962</v>
+        <v>0.2221030518682961</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2574687847925095</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1441989201346151</v>
+        <v>0.1420651168427716</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.423598699550845</v>
+        <v>0.4194130400232278</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.198903011654633</v>
+        <v>0.2006435459138486</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1523084641998195</v>
+        <v>0.1493894975377814</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2650953613985609</v>
+        <v>0.2628419724640899</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.48866163348581</v>
+        <v>0.4922628972400565</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2499679896131444</v>
+        <v>0.2478575266344788</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1850541275387477</v>
+        <v>0.1833010406249435</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2207229526127669</v>
+        <v>0.2226528078989342</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4743862750686443</v>
+        <v>0.4779821303355406</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2397294261386209</v>
+        <v>0.2345027060578522</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.17993875330368</v>
+        <v>0.1805613976896308</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2417608957301265</v>
+        <v>0.242811428128029</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5460371570371682</v>
+        <v>0.544617099537499</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3130708516144135</v>
+        <v>0.3107907159398944</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2470562788050583</v>
+        <v>0.2517878474711592</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3734152776919635</v>
+        <v>0.3728382276007158</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6062208503117337</v>
+        <v>0.605034192603945</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3603669485450048</v>
+        <v>0.3538383415759017</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2678076743812819</v>
+        <v>0.2659635177350777</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2924535857472827</v>
+        <v>0.2951797174494587</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5604791670860869</v>
+        <v>0.5634894823866262</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3162116631065913</v>
+        <v>0.3172787129133876</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2414507770691369</v>
+        <v>0.2426372985384111</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1071426366848989</v>
+        <v>0.1061565860430097</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5205983352397222</v>
+        <v>0.5097146934807812</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3487404572950759</v>
+        <v>0.3431522492786734</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2180105847592609</v>
+        <v>0.2217754582723258</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1875875601541214</v>
+        <v>0.1920496973802715</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5753036031098837</v>
+        <v>0.5728219058940551</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4138715885452692</v>
+        <v>0.4215790402410296</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2210555022649494</v>
+        <v>0.217995856533483</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1604035181700385</v>
+        <v>0.1623188137960111</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5614560452523608</v>
+        <v>0.5656556310324364</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4007151089414446</v>
+        <v>0.4022751880547459</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2331695589386092</v>
+        <v>0.2357017021449731</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1880547065603972</v>
+        <v>0.1902431231798716</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6374804599322895</v>
+        <v>0.6311161221237497</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4657527063689083</v>
+        <v>0.4662194255252179</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3572150487384458</v>
+        <v>0.3624332257379305</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2749481962658683</v>
+        <v>0.2786451300492019</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6761256829464143</v>
+        <v>0.6779531854970372</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5246148689369722</v>
+        <v>0.5238164388328315</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3116189549967179</v>
+        <v>0.3082637245444076</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2246740116522782</v>
+        <v>0.222250868796128</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6432699645377855</v>
+        <v>0.6406381474568088</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4862262698542554</v>
+        <v>0.4830624015415561</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.313089616399471</v>
+        <v>0.3146071559025228</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.5957758003367302</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2419361108965645</v>
+        <v>0.2419361108965644</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2429792953629581</v>
@@ -1229,7 +1229,7 @@
         <v>0.644836549671605</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2240519169463016</v>
+        <v>0.2240519169463015</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2562437001781807</v>
@@ -1241,7 +1241,7 @@
         <v>0.62123413874724</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2314826348781227</v>
+        <v>0.2314826348781228</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2069995061435834</v>
+        <v>0.2086056807824492</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4546003747957088</v>
+        <v>0.4659881596779376</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5183521090438713</v>
+        <v>0.5172843452527012</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1770842880363972</v>
+        <v>0.1781735173078281</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1807953156767401</v>
+        <v>0.1847948470654783</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4797449666163365</v>
+        <v>0.4827670972004544</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5809176285028315</v>
+        <v>0.5718983124203284</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1785377096123483</v>
+        <v>0.1786592989667991</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2141499119678172</v>
+        <v>0.2102803781517222</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4875056919132549</v>
+        <v>0.4890028689329705</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5741373963378875</v>
+        <v>0.5671836961214464</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1921353166243099</v>
+        <v>0.1950823653122912</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3507210879032086</v>
+        <v>0.3495829063194668</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6119672657648415</v>
+        <v>0.6141883755506805</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.671144441380735</v>
+        <v>0.6638807222758102</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3200518148821616</v>
+        <v>0.3263001274588638</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3096965931393492</v>
+        <v>0.3034084142594041</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6242935519809213</v>
+        <v>0.6194151189294524</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7140602351462532</v>
+        <v>0.7086777321441764</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2754983342919299</v>
+        <v>0.2733859727570792</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3057830304123772</v>
+        <v>0.30400089953719</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5902406567233459</v>
+        <v>0.5936557563076672</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6725098250270095</v>
+        <v>0.6686179819451996</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2743253750372496</v>
+        <v>0.2778374113799661</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.4226912921278195</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.2946821030380028</v>
+        <v>0.2946821030380027</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2111674053777332</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.109586365227427</v>
+        <v>0.1052173558208549</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4576059926517911</v>
+        <v>0.4574944958897582</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3527616591939239</v>
+        <v>0.3536733045310402</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2384327389534526</v>
+        <v>0.2428446650170378</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1626901997506044</v>
+        <v>0.1591761371407717</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4132516127027419</v>
+        <v>0.4169432297078149</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3715180620803185</v>
+        <v>0.3690955507936545</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2928356090277759</v>
+        <v>0.292515796737017</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1511935037291864</v>
+        <v>0.1483121982125279</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4553481237252757</v>
+        <v>0.4544482572699871</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3886269971976815</v>
+        <v>0.3856909702799522</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2782511676018338</v>
+        <v>0.2786821622708022</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2021063486982718</v>
+        <v>0.2046239520100008</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5898589456419051</v>
+        <v>0.5977987849523851</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4911139836557995</v>
+        <v>0.487249292699267</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3494989251592881</v>
+        <v>0.357081269998326</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2727695499082819</v>
+        <v>0.2710279900204042</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5380810664582705</v>
+        <v>0.5414289540649142</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5156447826082856</v>
+        <v>0.5112211004691992</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3957608144749189</v>
+        <v>0.3881800859589438</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.223730369214421</v>
+        <v>0.2218231874671748</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5484452764790592</v>
+        <v>0.5408668227402911</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4857917391636912</v>
+        <v>0.4816796490690832</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3556815474217619</v>
+        <v>0.3559784008612464</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.3618499202043687</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1223969347084453</v>
+        <v>0.1223969347084452</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2616618785399578</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1656185097884232</v>
+        <v>0.1659425517392998</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4336892190233249</v>
+        <v>0.4339854699781654</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3152343362564874</v>
+        <v>0.3183865465394456</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09342553971055077</v>
+        <v>0.09409070506166671</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2240967900543944</v>
+        <v>0.2258459622893789</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.433993111824831</v>
+        <v>0.4325257511235348</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4031337294057056</v>
+        <v>0.4040409402067904</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1193036920013897</v>
+        <v>0.1199770238709091</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2092162370866598</v>
+        <v>0.2057917103083294</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4479935447853156</v>
+        <v>0.4504830834530908</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3778692810918812</v>
+        <v>0.3768472564320096</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.113830512813033</v>
+        <v>0.1145909144435657</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2418877454771139</v>
+        <v>0.2470309554575988</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5239753973238781</v>
+        <v>0.5269236627318857</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4143925731625833</v>
+        <v>0.4085940001813627</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1608447294186546</v>
+        <v>0.1621746832083866</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3023772611339912</v>
+        <v>0.2982999480773613</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5194927673319384</v>
+        <v>0.5213128917958426</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4894825434167111</v>
+        <v>0.4914419988831407</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1728397049963026</v>
+        <v>0.1714561458163084</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2654883631513328</v>
+        <v>0.2603917252433773</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.5096420341055464</v>
+        <v>0.5083907755022871</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4411649838592666</v>
+        <v>0.4415681401697629</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1544845482769217</v>
+        <v>0.1546501314033714</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.603221845566787</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.4151754172718696</v>
+        <v>0.4151754172718695</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.2603111090200235</v>
@@ -1637,7 +1637,7 @@
         <v>0.6521715613874777</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.4859155157297904</v>
+        <v>0.4859155157297902</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.2786424743086958</v>
@@ -1649,7 +1649,7 @@
         <v>0.6299661848641752</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.4544494618189979</v>
+        <v>0.454449461818998</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2620640112923773</v>
+        <v>0.258219272942102</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4805355785905436</v>
+        <v>0.4822530515676391</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.5614220882549245</v>
+        <v>0.5612796686807139</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3682633312650361</v>
+        <v>0.3688852603479655</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2228229727023937</v>
+        <v>0.226201288826886</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.5214645482676744</v>
+        <v>0.521709060555538</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.6173815622091678</v>
+        <v>0.6114300884423263</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.451900011030512</v>
+        <v>0.4503033976248388</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2533933050075418</v>
+        <v>0.2530864667844666</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.5164097838959735</v>
+        <v>0.5143861853369156</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.5996837377426635</v>
+        <v>0.6011317664517662</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.4270679685536227</v>
+        <v>0.4259329275169391</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3399110493376846</v>
+        <v>0.3387461391561461</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5641152868401175</v>
+        <v>0.5651588539565638</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.6382904253392943</v>
+        <v>0.6456447835260184</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4590078405193294</v>
+        <v>0.4575807612426437</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2910106344027167</v>
+        <v>0.2960099823344675</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.5992436062808769</v>
+        <v>0.5995783142123332</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.6903217316082825</v>
+        <v>0.690486560185865</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.5244455090647941</v>
+        <v>0.5217003979001205</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3059168091932377</v>
+        <v>0.304012281060445</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.5724488712160696</v>
+        <v>0.5733762264298692</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.6603892620340093</v>
+        <v>0.6576045664097222</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.482468539637292</v>
+        <v>0.4830667033260591</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.4696106301764345</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.2771375617462544</v>
+        <v>0.2771375617462545</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.2417807702481004</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1997265867019365</v>
+        <v>0.2019323028156871</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.4989851814448812</v>
+        <v>0.4983786039270684</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3965206009731178</v>
+        <v>0.396372153522688</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.222466979654051</v>
+        <v>0.2222240515644234</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2457077454174861</v>
+        <v>0.2455391409605985</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.5231092060415907</v>
+        <v>0.5240740591191799</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.4512429756476242</v>
+        <v>0.4513987966123028</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2626049487889739</v>
+        <v>0.2638142499921167</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2306955416027019</v>
+        <v>0.2293111814613061</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.5175990084206729</v>
+        <v>0.516224134487397</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.4309801130634306</v>
+        <v>0.4304120787649726</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2487975944949813</v>
+        <v>0.2489219292520159</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2341677167569262</v>
+        <v>0.2351793067866018</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5392929243097035</v>
+        <v>0.5390079386155443</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4351685190967765</v>
+        <v>0.4364371326200961</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2594086884785102</v>
+        <v>0.26001601262024</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2798482340344395</v>
+        <v>0.2779402567556291</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.5594742252723014</v>
+        <v>0.5612543826635999</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.490859454173261</v>
+        <v>0.4881531329654066</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2919633462612546</v>
+        <v>0.2913554922982814</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2533832606091192</v>
+        <v>0.2541389126447806</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.5438231341614346</v>
+        <v>0.543496024112343</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.4592833350363972</v>
+        <v>0.4590778367979052</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2715281060126578</v>
+        <v>0.2728079837764327</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>34020</v>
+        <v>35296</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>122020</v>
+        <v>123104</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>89538</v>
+        <v>88599</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>17772</v>
+        <v>17998</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>57866</v>
+        <v>57749</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>143065</v>
+        <v>143251</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>109994</v>
+        <v>111213</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>27554</v>
+        <v>26714</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>98183</v>
+        <v>98522</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>273800</v>
+        <v>276121</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>208967</v>
+        <v>208679</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>48389</v>
+        <v>48055</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>57855</v>
+        <v>58677</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>153873</v>
+        <v>153906</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>119520</v>
+        <v>121100</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>35927</v>
+        <v>34948</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>86344</v>
+        <v>85830</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>177867</v>
+        <v>176566</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>142614</v>
+        <v>143102</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>44210</v>
+        <v>44646</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>137028</v>
+        <v>137259</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>321894</v>
+        <v>321133</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>254553</v>
+        <v>252020</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>72425</v>
+        <v>72504</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>55333</v>
+        <v>56066</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>171066</v>
+        <v>170167</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>60792</v>
+        <v>60632</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>60756</v>
+        <v>60658</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>88245</v>
+        <v>89027</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>223053</v>
+        <v>223626</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>87978</v>
+        <v>87772</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>107002</v>
+        <v>109345</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>155904</v>
+        <v>156165</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>405514</v>
+        <v>406373</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>158976</v>
+        <v>157312</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>177711</v>
+        <v>176892</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>87437</v>
+        <v>87250</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>212059</v>
+        <v>211151</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>92476</v>
+        <v>91048</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>96856</v>
+        <v>98622</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>123495</v>
+        <v>125654</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>267934</v>
+        <v>266987</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>123470</v>
+        <v>124725</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>141475</v>
+        <v>143074</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>200938</v>
+        <v>205216</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>466835</v>
+        <v>467776</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>205564</v>
+        <v>208092</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>226818</v>
+        <v>225840</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>34693</v>
+        <v>34179</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>112405</v>
+        <v>111294</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>46933</v>
+        <v>47343</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>34670</v>
+        <v>34006</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>75815</v>
+        <v>75170</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>145227</v>
+        <v>146298</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>67205</v>
+        <v>66638</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>50743</v>
+        <v>50262</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>116228</v>
+        <v>117245</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>266866</v>
+        <v>268889</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>121018</v>
+        <v>118380</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>90300</v>
+        <v>90613</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>58165</v>
+        <v>58418</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>144895</v>
+        <v>144518</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>73871</v>
+        <v>73333</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>56238</v>
+        <v>57315</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>106793</v>
+        <v>106628</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>180165</v>
+        <v>179813</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>96886</v>
+        <v>95131</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>73435</v>
+        <v>72929</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>154000</v>
+        <v>155436</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>315298</v>
+        <v>316992</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>159627</v>
+        <v>160166</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>121169</v>
+        <v>121765</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>28573</v>
+        <v>28310</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>163590</v>
+        <v>160170</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>94804</v>
+        <v>93285</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>54779</v>
+        <v>55725</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>60347</v>
+        <v>61783</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>202473</v>
+        <v>201600</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>140988</v>
+        <v>143614</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>72598</v>
+        <v>71593</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>94379</v>
+        <v>95506</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>374029</v>
+        <v>376826</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>245440</v>
+        <v>246395</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>135164</v>
+        <v>136632</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>50151</v>
+        <v>50735</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>200318</v>
+        <v>198318</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>126613</v>
+        <v>126740</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>89756</v>
+        <v>91068</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>88451</v>
+        <v>89640</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>237956</v>
+        <v>238600</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>178714</v>
+        <v>178442</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>102340</v>
+        <v>101238</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>132195</v>
+        <v>130769</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>428531</v>
+        <v>426778</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>297816</v>
+        <v>295878</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>181492</v>
+        <v>182371</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>31419</v>
+        <v>31662</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>79807</v>
+        <v>81807</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>89493</v>
+        <v>89309</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>19323</v>
+        <v>19441</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>33838</v>
+        <v>34587</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>97420</v>
+        <v>98034</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>108181</v>
+        <v>106502</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>27406</v>
+        <v>27425</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>72585</v>
+        <v>71273</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>184580</v>
+        <v>185147</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>206043</v>
+        <v>203547</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>50458</v>
+        <v>51232</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>53233</v>
+        <v>53060</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>107434</v>
+        <v>107824</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>115872</v>
+        <v>114618</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>34922</v>
+        <v>35604</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>57964</v>
+        <v>56787</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>126773</v>
+        <v>125783</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>132976</v>
+        <v>131974</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>42290</v>
+        <v>41965</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>103643</v>
+        <v>103039</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>223478</v>
+        <v>224771</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>241346</v>
+        <v>239950</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>72042</v>
+        <v>72965</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>23475</v>
+        <v>22539</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>105403</v>
+        <v>105377</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>68384</v>
+        <v>68561</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>48757</v>
+        <v>49659</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>36850</v>
+        <v>36054</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>105580</v>
+        <v>106523</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>78287</v>
+        <v>77777</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>62647</v>
+        <v>62579</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>66634</v>
+        <v>65364</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>221217</v>
+        <v>220780</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>157229</v>
+        <v>156041</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>116426</v>
+        <v>116607</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>43295</v>
+        <v>43834</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>135865</v>
+        <v>137694</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>95204</v>
+        <v>94455</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>71469</v>
+        <v>73019</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>61783</v>
+        <v>61388</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>137472</v>
+        <v>138327</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>108658</v>
+        <v>107726</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>84666</v>
+        <v>83045</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>98602</v>
+        <v>97762</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>266446</v>
+        <v>262764</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>196540</v>
+        <v>194876</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>148825</v>
+        <v>148949</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>73045</v>
+        <v>73188</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>227177</v>
+        <v>227332</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>138093</v>
+        <v>139474</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>45383</v>
+        <v>45706</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>120692</v>
+        <v>121634</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>261983</v>
+        <v>261097</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>223364</v>
+        <v>223867</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>68949</v>
+        <v>69338</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>204952</v>
+        <v>201597</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>505105</v>
+        <v>507912</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>374898</v>
+        <v>373884</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>121081</v>
+        <v>121890</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>106683</v>
+        <v>108952</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>274471</v>
+        <v>276016</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>181531</v>
+        <v>178991</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>78133</v>
+        <v>78779</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>162852</v>
+        <v>160656</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>313595</v>
+        <v>314694</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>271208</v>
+        <v>272293</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>99889</v>
+        <v>99089</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>260077</v>
+        <v>255084</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>574612</v>
+        <v>573201</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>437696</v>
+        <v>438096</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>164324</v>
+        <v>164500</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>153163</v>
+        <v>150916</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>291058</v>
+        <v>292099</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>323435</v>
+        <v>323353</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>183183</v>
+        <v>183492</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>149198</v>
+        <v>151460</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>365639</v>
+        <v>365811</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>428376</v>
+        <v>424246</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>280564</v>
+        <v>279573</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>317763</v>
+        <v>317378</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>674883</v>
+        <v>672238</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>761573</v>
+        <v>763412</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>477582</v>
+        <v>476312</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>198661</v>
+        <v>197980</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>341682</v>
+        <v>342314</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>367718</v>
+        <v>371955</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>228322</v>
+        <v>227612</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>194855</v>
+        <v>198203</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>420176</v>
+        <v>420411</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>478986</v>
+        <v>479100</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>325605</v>
+        <v>323900</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>383629</v>
+        <v>381241</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>748119</v>
+        <v>749330</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>838667</v>
+        <v>835130</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>539535</v>
+        <v>540204</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>492223</v>
+        <v>497659</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1371322</v>
+        <v>1369655</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>990902</v>
+        <v>990531</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>528457</v>
+        <v>527880</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>706030</v>
+        <v>705545</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1644436</v>
+        <v>1647469</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1332576</v>
+        <v>1333036</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>756657</v>
+        <v>760142</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1231438</v>
+        <v>1224048</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>3049591</v>
+        <v>3041491</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>2349754</v>
+        <v>2346657</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1307877</v>
+        <v>1308531</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>577102</v>
+        <v>579595</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1482097</v>
+        <v>1481313</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1087483</v>
+        <v>1090653</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>616210</v>
+        <v>617652</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>804131</v>
+        <v>798648</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1758753</v>
+        <v>1764349</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1449568</v>
+        <v>1441576</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>841249</v>
+        <v>839498</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1352544</v>
+        <v>1356577</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>3204099</v>
+        <v>3202172</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>2504066</v>
+        <v>2502946</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1427367</v>
+        <v>1434095</v>
       </c>
     </row>
     <row r="40">
